--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -458,17 +458,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>jhkh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>kobalt</t>
+          <t>kjlkj</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>lkklkj</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,26 +505,6 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Qty</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>nails</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>nailbrand</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>130</t>
         </is>
       </c>
     </row>
@@ -539,7 +519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,26 +544,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>oak</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2x4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,26 +449,6 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Qty</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>jhkh</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>kjlkj</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>lkklkj</t>
         </is>
       </c>
     </row>
